--- a/tiles analysis/101124_analysis_by_image_NEW.xlsx
+++ b/tiles analysis/101124_analysis_by_image_NEW.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.01818181818181818</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07777777777777778</v>
+        <v>0.08955223880597014</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2719298245614035</v>
+        <v>0.05504587155963303</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1557377049180328</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0390625</v>
+        <v>0.02336448598130841</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1339285714285714</v>
+        <v>0.01734104046242774</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.006666666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3884297520661157</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3085106382978723</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.08633093525179857</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>582</v>
+        <v>511</v>
       </c>
       <c r="C14" t="n">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="D14" t="n">
-        <v>6.53932584269663</v>
+        <v>1.768166089965398</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>498</v>
+        <v>382</v>
       </c>
       <c r="C15" t="n">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>1.123529411764706</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="C16" t="n">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="D16" t="n">
-        <v>5.709677419354839</v>
+        <v>1.982905982905983</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="18">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1578947368421053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4615384615384616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D25" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04081632653061224</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
